--- a/ProjectPartTwo/Output Table.xlsx
+++ b/ProjectPartTwo/Output Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colemtg\Desktop\Comp Arch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7E6DA-210F-4561-9B33-6257B7BFFE87}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F28BB8-2845-417D-A405-B2EB83F118A0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{C8CBA0E8-DC88-4781-88BB-D0464E283F33}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,10 +1167,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1196,25 +1196,25 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>16</v>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1240,14 +1240,14 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="M17" t="s">
+        <v>16</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectPartTwo/Output Table.xlsx
+++ b/ProjectPartTwo/Output Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colemtg\Desktop\Comp Arch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F28BB8-2845-417D-A405-B2EB83F118A0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69D3CA-DA3B-4631-AC48-20DB01E1719E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{C8CBA0E8-DC88-4781-88BB-D0464E283F33}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>BRA/BNE</t>
   </si>
   <si>
-    <t>BRA/BNE/BRR/BNE</t>
-  </si>
-  <si>
     <t>(see above)</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>writeback</t>
+  </si>
+  <si>
+    <t>BNE/BNR</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,25 +774,25 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -988,19 +988,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1032,19 +1032,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1076,19 +1076,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
